--- a/dashboards_v2/CMO_Dashboard_Complete.xlsx
+++ b/dashboards_v2/CMO_Dashboard_Complete.xlsx
@@ -7,12 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="SEGMENT_PULSE" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="INNOVATION_LAB" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="STRATEGY_COCKPIT" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="UPLOAD_READY_MARKETING" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="UPLOAD_READY_INNOVATION" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="CROSS_REFERENCE" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="SEGMENT PULSE" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="INNOVATION LAB" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="STRATEGY COCKPIT" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="UPLOAD READY MARKETING" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="UPLOAD READY INNOVATION" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="CROSS REFERENCE" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -160,11 +160,11 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -328,12 +328,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'SEGMENT_PULSE'!$I$4</f>
+              <f>'SEGMENT PULSE'!$I$4</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'SEGMENT_PULSE'!$J$4</f>
+              <f>'SEGMENT PULSE'!$J$4</f>
             </numRef>
           </yVal>
         </ser>
@@ -362,12 +362,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'SEGMENT_PULSE'!$I$5</f>
+              <f>'SEGMENT PULSE'!$I$5</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'SEGMENT_PULSE'!$J$5</f>
+              <f>'SEGMENT PULSE'!$J$5</f>
             </numRef>
           </yVal>
         </ser>
@@ -464,7 +464,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'SEGMENT_PULSE'!I26</f>
+              <f>'SEGMENT PULSE'!I26</f>
             </strRef>
           </tx>
           <spPr>
@@ -474,12 +474,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'SEGMENT_PULSE'!$H$27:$H$29</f>
+              <f>'SEGMENT PULSE'!$H$27:$H$29</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'SEGMENT_PULSE'!$I$27:$I$29</f>
+              <f>'SEGMENT PULSE'!$I$27:$I$29</f>
             </numRef>
           </val>
         </ser>
@@ -488,7 +488,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'SEGMENT_PULSE'!J26</f>
+              <f>'SEGMENT PULSE'!J26</f>
             </strRef>
           </tx>
           <spPr>
@@ -498,12 +498,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'SEGMENT_PULSE'!$H$27:$H$29</f>
+              <f>'SEGMENT PULSE'!$H$27:$H$29</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'SEGMENT_PULSE'!$J$27:$J$29</f>
+              <f>'SEGMENT PULSE'!$J$27:$J$29</f>
             </numRef>
           </val>
         </ser>
@@ -1000,18 +1000,18 @@
       <c r="C5" s="8" t="n">
         <v>8800</v>
       </c>
-      <c r="D5" s="9" t="n">
-        <v>-13.67</v>
-      </c>
-      <c r="E5" s="10" t="n">
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="G5" s="11" t="inlineStr">
-        <is>
-          <t>CRITICAL: Boost TV for Allocation</t>
+      <c r="G5" s="10" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
       <c r="H5" s="5" t="inlineStr">
@@ -1038,18 +1038,18 @@
       <c r="C6" s="8" t="n">
         <v>6000</v>
       </c>
-      <c r="D6" s="9" t="n">
-        <v>-12.42</v>
-      </c>
-      <c r="E6" s="10" t="n">
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="G6" s="11" t="inlineStr">
-        <is>
-          <t>CRITICAL: Boost TV for Allocation</t>
+      <c r="G6" s="10" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1065,10 +1065,10 @@
       <c r="C7" s="8" t="n">
         <v>4900</v>
       </c>
-      <c r="D7" s="9" t="n">
-        <v>-3.739999999999998</v>
-      </c>
-      <c r="E7" s="10" t="n">
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
@@ -1086,7 +1086,7 @@
           <t>East</t>
         </is>
       </c>
-      <c r="B8" s="10" t="n">
+      <c r="B8" s="9" t="n">
         <v>0</v>
       </c>
       <c r="C8" s="8" t="n">
@@ -1095,7 +1095,7 @@
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
@@ -1113,7 +1113,7 @@
           <t>South</t>
         </is>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="9" t="n">
         <v>0</v>
       </c>
       <c r="C9" s="8" t="n">
@@ -1122,7 +1122,7 @@
       <c r="D9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
@@ -1193,13 +1193,13 @@
       <c r="D14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="10" t="n">
+      <c r="E14" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="G14" s="13" t="inlineStr">
+      <c r="G14" s="10" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1220,13 +1220,13 @@
       <c r="D15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="10" t="n">
+      <c r="E15" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="G15" s="13" t="inlineStr">
+      <c r="G15" s="10" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1244,16 +1244,16 @@
       <c r="C16" s="8" t="n">
         <v>12600</v>
       </c>
-      <c r="D16" s="9" t="n">
+      <c r="D16" s="13" t="n">
         <v>-3.552713678800501e-15</v>
       </c>
-      <c r="E16" s="10" t="n">
+      <c r="E16" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="G16" s="13" t="inlineStr">
+      <c r="G16" s="10" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1265,7 +1265,7 @@
           <t>East</t>
         </is>
       </c>
-      <c r="B17" s="10" t="n">
+      <c r="B17" s="9" t="n">
         <v>0</v>
       </c>
       <c r="C17" s="8" t="n">
@@ -1274,7 +1274,7 @@
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="E17" s="10" t="n">
+      <c r="E17" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
@@ -1292,7 +1292,7 @@
           <t>South</t>
         </is>
       </c>
-      <c r="B18" s="10" t="n">
+      <c r="B18" s="9" t="n">
         <v>0</v>
       </c>
       <c r="C18" s="8" t="n">
@@ -1301,7 +1301,7 @@
       <c r="D18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="E18" s="10" t="n">
+      <c r="E18" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
@@ -2304,11 +2304,11 @@
         </is>
       </c>
       <c r="D6" s="5">
-        <f>STRATEGY_COCKPIT!C9</f>
+        <f>'STRATEGY COCKPIT'!C9</f>
         <v/>
       </c>
       <c r="E6" s="5">
-        <f>STRATEGY_COCKPIT!B10</f>
+        <f>'STRATEGY COCKPIT'!B10</f>
         <v/>
       </c>
       <c r="G6" s="5" t="inlineStr">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="H6" s="5">
-        <f>STRATEGY_COCKPIT!D16</f>
+        <f>'STRATEGY COCKPIT'!D16</f>
         <v/>
       </c>
       <c r="J6" s="5" t="inlineStr">
@@ -2331,7 +2331,7 @@
         </is>
       </c>
       <c r="L6" s="5">
-        <f>STRATEGY_COCKPIT!G16</f>
+        <f>'STRATEGY COCKPIT'!G16</f>
         <v/>
       </c>
       <c r="N6" s="5" t="inlineStr">
@@ -2340,11 +2340,11 @@
         </is>
       </c>
       <c r="O6" s="5">
-        <f>STRATEGY_COCKPIT!I16</f>
+        <f>'STRATEGY COCKPIT'!I16</f>
         <v/>
       </c>
       <c r="P6" s="5">
-        <f>STRATEGY_COCKPIT!F16</f>
+        <f>'STRATEGY COCKPIT'!F16</f>
         <v/>
       </c>
     </row>
@@ -2365,11 +2365,11 @@
         </is>
       </c>
       <c r="D7" s="5">
-        <f>STRATEGY_COCKPIT!E16*STRATEGY_COCKPIT!$B$3</f>
+        <f>'STRATEGY COCKPIT'!E16*'STRATEGY COCKPIT'!$B$3</f>
         <v/>
       </c>
       <c r="E7" s="5">
-        <f>STRATEGY_COCKPIT!B10</f>
+        <f>'STRATEGY COCKPIT'!B10</f>
         <v/>
       </c>
       <c r="G7" s="5" t="inlineStr">
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="H7" s="5">
-        <f>STRATEGY_COCKPIT!D17</f>
+        <f>'STRATEGY COCKPIT'!D17</f>
         <v/>
       </c>
       <c r="J7" s="5" t="inlineStr">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="L7" s="5">
-        <f>STRATEGY_COCKPIT!G17</f>
+        <f>'STRATEGY COCKPIT'!G17</f>
         <v/>
       </c>
       <c r="N7" s="5" t="inlineStr">
@@ -2401,11 +2401,11 @@
         </is>
       </c>
       <c r="O7" s="5">
-        <f>STRATEGY_COCKPIT!I17</f>
+        <f>'STRATEGY COCKPIT'!I17</f>
         <v/>
       </c>
       <c r="P7" s="5">
-        <f>STRATEGY_COCKPIT!F17</f>
+        <f>'STRATEGY COCKPIT'!F17</f>
         <v/>
       </c>
     </row>
@@ -2426,11 +2426,11 @@
         </is>
       </c>
       <c r="D8" s="5">
-        <f>STRATEGY_COCKPIT!E17*STRATEGY_COCKPIT!$B$3</f>
+        <f>'STRATEGY COCKPIT'!E17*'STRATEGY COCKPIT'!$B$3</f>
         <v/>
       </c>
       <c r="E8" s="5">
-        <f>STRATEGY_COCKPIT!B10</f>
+        <f>'STRATEGY COCKPIT'!B10</f>
         <v/>
       </c>
       <c r="G8" s="5" t="inlineStr">
@@ -2439,7 +2439,7 @@
         </is>
       </c>
       <c r="H8" s="5">
-        <f>STRATEGY_COCKPIT!D18</f>
+        <f>'STRATEGY COCKPIT'!D18</f>
         <v/>
       </c>
       <c r="J8" s="5" t="inlineStr">
@@ -2453,7 +2453,7 @@
         </is>
       </c>
       <c r="L8" s="5">
-        <f>STRATEGY_COCKPIT!G18</f>
+        <f>'STRATEGY COCKPIT'!G18</f>
         <v/>
       </c>
       <c r="N8" s="5" t="inlineStr">
@@ -2462,11 +2462,11 @@
         </is>
       </c>
       <c r="O8" s="5">
-        <f>STRATEGY_COCKPIT!I18</f>
+        <f>'STRATEGY COCKPIT'!I18</f>
         <v/>
       </c>
       <c r="P8" s="5">
-        <f>STRATEGY_COCKPIT!F18</f>
+        <f>'STRATEGY COCKPIT'!F18</f>
         <v/>
       </c>
     </row>
@@ -2487,11 +2487,11 @@
         </is>
       </c>
       <c r="D9" s="5">
-        <f>STRATEGY_COCKPIT!E18*STRATEGY_COCKPIT!$B$3</f>
+        <f>'STRATEGY COCKPIT'!E18*'STRATEGY COCKPIT'!$B$3</f>
         <v/>
       </c>
       <c r="E9" s="5">
-        <f>STRATEGY_COCKPIT!B10</f>
+        <f>'STRATEGY COCKPIT'!B10</f>
         <v/>
       </c>
       <c r="G9" s="5" t="inlineStr">
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="H9" s="5">
-        <f>STRATEGY_COCKPIT!D19</f>
+        <f>'STRATEGY COCKPIT'!D19</f>
         <v/>
       </c>
       <c r="J9" s="5" t="inlineStr">
@@ -2514,7 +2514,7 @@
         </is>
       </c>
       <c r="L9" s="5">
-        <f>STRATEGY_COCKPIT!G19</f>
+        <f>'STRATEGY COCKPIT'!G19</f>
         <v/>
       </c>
       <c r="N9" s="5" t="inlineStr">
@@ -2523,11 +2523,11 @@
         </is>
       </c>
       <c r="O9" s="5">
-        <f>STRATEGY_COCKPIT!I19</f>
+        <f>'STRATEGY COCKPIT'!I19</f>
         <v/>
       </c>
       <c r="P9" s="5">
-        <f>STRATEGY_COCKPIT!F19</f>
+        <f>'STRATEGY COCKPIT'!F19</f>
         <v/>
       </c>
     </row>
@@ -2548,11 +2548,11 @@
         </is>
       </c>
       <c r="D10" s="5">
-        <f>STRATEGY_COCKPIT!E19*STRATEGY_COCKPIT!$B$3</f>
+        <f>'STRATEGY COCKPIT'!E19*'STRATEGY COCKPIT'!$B$3</f>
         <v/>
       </c>
       <c r="E10" s="5">
-        <f>STRATEGY_COCKPIT!B10</f>
+        <f>'STRATEGY COCKPIT'!B10</f>
         <v/>
       </c>
       <c r="G10" s="5" t="inlineStr">
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="H10" s="5">
-        <f>STRATEGY_COCKPIT!D20</f>
+        <f>'STRATEGY COCKPIT'!D20</f>
         <v/>
       </c>
       <c r="J10" s="5" t="inlineStr">
@@ -2575,7 +2575,7 @@
         </is>
       </c>
       <c r="L10" s="5">
-        <f>STRATEGY_COCKPIT!G20</f>
+        <f>'STRATEGY COCKPIT'!G20</f>
         <v/>
       </c>
       <c r="N10" s="5" t="inlineStr">
@@ -2584,11 +2584,11 @@
         </is>
       </c>
       <c r="O10" s="5">
-        <f>STRATEGY_COCKPIT!I20</f>
+        <f>'STRATEGY COCKPIT'!I20</f>
         <v/>
       </c>
       <c r="P10" s="5">
-        <f>STRATEGY_COCKPIT!F20</f>
+        <f>'STRATEGY COCKPIT'!F20</f>
         <v/>
       </c>
     </row>
@@ -2609,11 +2609,11 @@
         </is>
       </c>
       <c r="D11" s="5">
-        <f>STRATEGY_COCKPIT!E20*STRATEGY_COCKPIT!$B$3</f>
+        <f>'STRATEGY COCKPIT'!E20*'STRATEGY COCKPIT'!$B$3</f>
         <v/>
       </c>
       <c r="E11" s="5">
-        <f>STRATEGY_COCKPIT!B10</f>
+        <f>'STRATEGY COCKPIT'!B10</f>
         <v/>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>85.0%</t>
+          <t>75.0%</t>
         </is>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="B11" s="5" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Healthy</t>
         </is>
       </c>
     </row>

--- a/dashboards_v2/CMO_Dashboard_Complete.xlsx
+++ b/dashboards_v2/CMO_Dashboard_Complete.xlsx
@@ -150,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -170,18 +170,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="5" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="5" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1445,7 +1447,7 @@
     <col width="35" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1480,7 +1482,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>Calculated Est. Cost</t>
+          <t>Cost Details</t>
         </is>
       </c>
     </row>
@@ -1494,11 +1496,12 @@
         <v>0</v>
       </c>
       <c r="C5" s="16" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="17">
-        <f>C5</f>
-        <v/>
+        <v>15000</v>
+      </c>
+      <c r="D5" s="17" t="inlineStr">
+        <is>
+          <t>$15,000 + $0.15/unit</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1511,11 +1514,12 @@
         <v>0</v>
       </c>
       <c r="C6" s="16" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="17">
-        <f>C6</f>
-        <v/>
+        <v>30000</v>
+      </c>
+      <c r="D6" s="17" t="inlineStr">
+        <is>
+          <t>$30,000 + $0.15/unit</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1528,11 +1532,12 @@
         <v>0</v>
       </c>
       <c r="C7" s="16" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="17">
-        <f>C7</f>
-        <v/>
+        <v>30000</v>
+      </c>
+      <c r="D7" s="17" t="inlineStr">
+        <is>
+          <t>$30,000 + $0.15/unit</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1545,11 +1550,12 @@
         <v>0</v>
       </c>
       <c r="C8" s="16" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D8" s="17">
-        <f>C8</f>
-        <v/>
+        <v>30000</v>
+      </c>
+      <c r="D8" s="17" t="inlineStr">
+        <is>
+          <t>$30,000 + $0.30/unit</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1562,11 +1568,12 @@
         <v>0</v>
       </c>
       <c r="C9" s="16" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D9" s="17">
-        <f>C9</f>
-        <v/>
+        <v>30000</v>
+      </c>
+      <c r="D9" s="17" t="inlineStr">
+        <is>
+          <t>$30,000 + $0.30/unit</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1579,11 +1586,12 @@
         <v>0</v>
       </c>
       <c r="C10" s="16" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D10" s="17">
-        <f>C10</f>
-        <v/>
+        <v>45000</v>
+      </c>
+      <c r="D10" s="17" t="inlineStr">
+        <is>
+          <t>$45,000 + $0.30/unit</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1596,11 +1604,12 @@
         <v>0</v>
       </c>
       <c r="C11" s="16" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D11" s="17">
-        <f>C11</f>
-        <v/>
+        <v>45000</v>
+      </c>
+      <c r="D11" s="17" t="inlineStr">
+        <is>
+          <t>$45,000 + $0.45/unit</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1613,11 +1622,12 @@
         <v>0</v>
       </c>
       <c r="C12" s="16" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D12" s="17">
-        <f>C12</f>
-        <v/>
+        <v>45000</v>
+      </c>
+      <c r="D12" s="17" t="inlineStr">
+        <is>
+          <t>$45,000 + $0.45/unit</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1630,11 +1640,12 @@
         <v>0</v>
       </c>
       <c r="C13" s="16" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D13" s="17">
-        <f>C13</f>
-        <v/>
+        <v>45000</v>
+      </c>
+      <c r="D13" s="17" t="inlineStr">
+        <is>
+          <t>$45,000 + $0.45/unit</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1647,11 +1658,12 @@
         <v>0</v>
       </c>
       <c r="C14" s="16" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D14" s="17">
-        <f>C14</f>
-        <v/>
+        <v>45000</v>
+      </c>
+      <c r="D14" s="17" t="inlineStr">
+        <is>
+          <t>$45,000 + $0.45/unit</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1664,11 +1676,12 @@
         <v>0</v>
       </c>
       <c r="C15" s="16" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D15" s="17">
-        <f>C15</f>
-        <v/>
+        <v>45000</v>
+      </c>
+      <c r="D15" s="17" t="inlineStr">
+        <is>
+          <t>$45,000 + $0.75/unit</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1681,11 +1694,12 @@
         <v>0</v>
       </c>
       <c r="C16" s="16" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D16" s="17">
-        <f>C16</f>
-        <v/>
+        <v>45000</v>
+      </c>
+      <c r="D16" s="17" t="inlineStr">
+        <is>
+          <t>$45,000 + $0.75/unit</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1698,11 +1712,12 @@
         <v>0</v>
       </c>
       <c r="C17" s="16" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D17" s="17">
-        <f>C17</f>
-        <v/>
+        <v>100000</v>
+      </c>
+      <c r="D17" s="17" t="inlineStr">
+        <is>
+          <t>$100,000 + $1.00/unit</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1715,11 +1730,12 @@
         <v>0</v>
       </c>
       <c r="C18" s="16" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D18" s="17">
-        <f>C18</f>
-        <v/>
+        <v>100000</v>
+      </c>
+      <c r="D18" s="17" t="inlineStr">
+        <is>
+          <t>$100,000 + $1.00/unit</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1729,10 +1745,6 @@
         </is>
       </c>
       <c r="C20" s="19">
-        <f>SUMPRODUCT(B5:B18,C5:C18)</f>
-        <v/>
-      </c>
-      <c r="D20">
         <f>SUMPRODUCT(B5:B18,C5:C18)</f>
         <v/>
       </c>
@@ -1748,7 +1760,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1836,7 +1848,7 @@
       <c r="B9" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="23">
         <f>B9*3000.0</f>
         <v/>
       </c>
@@ -1848,7 +1860,7 @@
         </is>
       </c>
       <c r="B10" s="22" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C10" s="14" t="inlineStr">
         <is>
@@ -1864,62 +1876,67 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="23" t="inlineStr">
+      <c r="A15" s="24" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="B15" s="23" t="inlineStr">
+      <c r="B15" s="24" t="inlineStr">
         <is>
           <t>Last Sales</t>
         </is>
       </c>
-      <c r="C15" s="23" t="inlineStr">
+      <c r="C15" s="24" t="inlineStr">
         <is>
           <t>Stockout?</t>
         </is>
       </c>
-      <c r="D15" s="23" t="inlineStr">
+      <c r="D15" s="24" t="inlineStr">
         <is>
           <t>Target Demand</t>
         </is>
       </c>
-      <c r="E15" s="23" t="inlineStr">
+      <c r="E15" s="24" t="inlineStr">
         <is>
           <t>Radio Spots (Qty)</t>
         </is>
       </c>
-      <c r="F15" s="23" t="inlineStr">
+      <c r="F15" s="24" t="inlineStr">
         <is>
           <t>Headcount</t>
         </is>
       </c>
-      <c r="G15" s="23" t="inlineStr">
+      <c r="G15" s="24" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="H15" s="23" t="inlineStr">
+      <c r="H15" s="24" t="inlineStr">
         <is>
           <t>Avg Comp Price</t>
         </is>
       </c>
-      <c r="I15" s="23" t="inlineStr">
+      <c r="I15" s="24" t="inlineStr">
         <is>
           <t>Payment</t>
         </is>
       </c>
-      <c r="J15" s="23" t="inlineStr">
+      <c r="J15" s="24" t="inlineStr">
+        <is>
+          <t>A/R Discount%</t>
+        </is>
+      </c>
+      <c r="K15" s="24" t="inlineStr">
         <is>
           <t>Est. Revenue</t>
         </is>
       </c>
-      <c r="K15" s="23" t="inlineStr">
+      <c r="L15" s="24" t="inlineStr">
         <is>
           <t>Mkt Cost</t>
         </is>
       </c>
-      <c r="L15" s="23" t="inlineStr">
+      <c r="M15" s="24" t="inlineStr">
         <is>
           <t>Contribution</t>
         </is>
@@ -1931,10 +1948,10 @@
           <t>Center</t>
         </is>
       </c>
-      <c r="B16" s="24" t="n">
+      <c r="B16" s="25" t="n">
         <v>8900</v>
       </c>
-      <c r="C16" s="25" t="inlineStr">
+      <c r="C16" s="26" t="inlineStr">
         <is>
           <t>TRUE DEMAND HIGHER</t>
         </is>
@@ -1951,20 +1968,24 @@
       <c r="G16" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" s="26" t="n">
+      <c r="H16" s="27" t="n">
         <v>68</v>
       </c>
       <c r="I16" s="22" t="inlineStr"/>
-      <c r="J16" s="17">
-        <f>D16*G16</f>
-        <v/>
-      </c>
-      <c r="K16" s="17">
+      <c r="J16" s="28">
+        <f>IF(I16="A",0.13,IF(I16="B",0.075,IF(I16="C",0.025,0)))</f>
+        <v/>
+      </c>
+      <c r="K16" s="23">
+        <f>D16*G16*(1-J16)</f>
+        <v/>
+      </c>
+      <c r="L16" s="23">
         <f>(C9/5) + (E16*300.0) + (F16*1500) + (MAX(0, F16-5)*1100)</f>
         <v/>
       </c>
-      <c r="L16" s="27">
-        <f>J16-K16</f>
+      <c r="M16" s="29">
+        <f>K16-L16</f>
         <v/>
       </c>
     </row>
@@ -1974,10 +1995,10 @@
           <t>West</t>
         </is>
       </c>
-      <c r="B17" s="24" t="n">
+      <c r="B17" s="25" t="n">
         <v>4028</v>
       </c>
-      <c r="C17" s="25" t="inlineStr">
+      <c r="C17" s="26" t="inlineStr">
         <is>
           <t>TRUE DEMAND HIGHER</t>
         </is>
@@ -1994,20 +2015,24 @@
       <c r="G17" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H17" s="26" t="n">
+      <c r="H17" s="27" t="n">
         <v>68</v>
       </c>
       <c r="I17" s="22" t="inlineStr"/>
-      <c r="J17" s="17">
-        <f>D17*G17</f>
-        <v/>
-      </c>
-      <c r="K17" s="17">
+      <c r="J17" s="28">
+        <f>IF(I17="A",0.13,IF(I17="B",0.075,IF(I17="C",0.025,0)))</f>
+        <v/>
+      </c>
+      <c r="K17" s="23">
+        <f>D17*G17*(1-J17)</f>
+        <v/>
+      </c>
+      <c r="L17" s="23">
         <f>(C9/5) + (E17*300.0) + (F17*1500) + (MAX(0, F17-5)*1100)</f>
         <v/>
       </c>
-      <c r="L17" s="27">
-        <f>J17-K17</f>
+      <c r="M17" s="29">
+        <f>K17-L17</f>
         <v/>
       </c>
     </row>
@@ -2017,10 +2042,10 @@
           <t>North</t>
         </is>
       </c>
-      <c r="B18" s="24" t="n">
+      <c r="B18" s="25" t="n">
         <v>4400</v>
       </c>
-      <c r="C18" s="25" t="inlineStr">
+      <c r="C18" s="26" t="inlineStr">
         <is>
           <t>TRUE DEMAND HIGHER</t>
         </is>
@@ -2037,20 +2062,24 @@
       <c r="G18" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H18" s="26" t="n">
+      <c r="H18" s="27" t="n">
         <v>91</v>
       </c>
       <c r="I18" s="22" t="inlineStr"/>
-      <c r="J18" s="17">
-        <f>D18*G18</f>
-        <v/>
-      </c>
-      <c r="K18" s="17">
+      <c r="J18" s="28">
+        <f>IF(I18="A",0.13,IF(I18="B",0.075,IF(I18="C",0.025,0)))</f>
+        <v/>
+      </c>
+      <c r="K18" s="23">
+        <f>D18*G18*(1-J18)</f>
+        <v/>
+      </c>
+      <c r="L18" s="23">
         <f>(C9/5) + (E18*300.0) + (F18*1500) + (MAX(0, F18-5)*1100)</f>
         <v/>
       </c>
-      <c r="L18" s="27">
-        <f>J18-K18</f>
+      <c r="M18" s="29">
+        <f>K18-L18</f>
         <v/>
       </c>
     </row>
@@ -2060,10 +2089,10 @@
           <t>East</t>
         </is>
       </c>
-      <c r="B19" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="25" t="inlineStr">
+      <c r="B19" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="26" t="inlineStr">
         <is>
           <t>TRUE DEMAND HIGHER</t>
         </is>
@@ -2080,20 +2109,24 @@
       <c r="G19" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H19" s="26" t="n">
+      <c r="H19" s="27" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="22" t="inlineStr"/>
-      <c r="J19" s="17">
-        <f>D19*G19</f>
-        <v/>
-      </c>
-      <c r="K19" s="17">
+      <c r="J19" s="28">
+        <f>IF(I19="A",0.13,IF(I19="B",0.075,IF(I19="C",0.025,0)))</f>
+        <v/>
+      </c>
+      <c r="K19" s="23">
+        <f>D19*G19*(1-J19)</f>
+        <v/>
+      </c>
+      <c r="L19" s="23">
         <f>(C9/5) + (E19*300.0) + (F19*1500) + (MAX(0, F19-5)*1100)</f>
         <v/>
       </c>
-      <c r="L19" s="27">
-        <f>J19-K19</f>
+      <c r="M19" s="29">
+        <f>K19-L19</f>
         <v/>
       </c>
     </row>
@@ -2103,10 +2136,10 @@
           <t>South</t>
         </is>
       </c>
-      <c r="B20" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="25" t="inlineStr">
+      <c r="B20" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="26" t="inlineStr">
         <is>
           <t>TRUE DEMAND HIGHER</t>
         </is>
@@ -2123,20 +2156,24 @@
       <c r="G20" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H20" s="26" t="n">
+      <c r="H20" s="27" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="22" t="inlineStr"/>
-      <c r="J20" s="17">
-        <f>D20*G20</f>
-        <v/>
-      </c>
-      <c r="K20" s="17">
+      <c r="J20" s="28">
+        <f>IF(I20="A",0.13,IF(I20="B",0.075,IF(I20="C",0.025,0)))</f>
+        <v/>
+      </c>
+      <c r="K20" s="23">
+        <f>D20*G20*(1-J20)</f>
+        <v/>
+      </c>
+      <c r="L20" s="23">
         <f>(C9/5) + (E20*300.0) + (F20*1500) + (MAX(0, F20-5)*1100)</f>
         <v/>
       </c>
-      <c r="L20" s="27">
-        <f>J20-K20</f>
+      <c r="M20" s="29">
+        <f>K20-L20</f>
         <v/>
       </c>
     </row>
@@ -2166,6 +2203,23 @@
       <formula>G20&gt;(H20*1.15)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="5">
+    <dataValidation sqref="I16" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" errorTitle="Invalid Payment Term" error="Payment term must be A, B, C, or D" type="list">
+      <formula1>"A,B,C,D"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" errorTitle="Invalid Payment Term" error="Payment term must be A, B, C, or D" type="list">
+      <formula1>"A,B,C,D"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I18" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" errorTitle="Invalid Payment Term" error="Payment term must be A, B, C, or D" type="list">
+      <formula1>"A,B,C,D"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I19" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" errorTitle="Invalid Payment Term" error="Payment term must be A, B, C, or D" type="list">
+      <formula1>"A,B,C,D"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" errorTitle="Invalid Payment Term" error="Payment term must be A, B, C, or D" type="list">
+      <formula1>"A,B,C,D"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2246,42 +2300,42 @@
           <t>Brand Focus</t>
         </is>
       </c>
-      <c r="G5" s="28" t="inlineStr">
+      <c r="G5" s="30" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="H5" s="28" t="inlineStr">
+      <c r="H5" s="30" t="inlineStr">
         <is>
           <t>Demand</t>
         </is>
       </c>
-      <c r="J5" s="28" t="inlineStr">
+      <c r="J5" s="30" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="K5" s="28" t="inlineStr">
+      <c r="K5" s="30" t="inlineStr">
         <is>
           <t>Brand</t>
         </is>
       </c>
-      <c r="L5" s="28" t="inlineStr">
+      <c r="L5" s="30" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="N5" s="28" t="inlineStr">
+      <c r="N5" s="30" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="O5" s="28" t="inlineStr">
+      <c r="O5" s="30" t="inlineStr">
         <is>
           <t>Payment</t>
         </is>
       </c>
-      <c r="P5" s="28" t="inlineStr">
+      <c r="P5" s="30" t="inlineStr">
         <is>
           <t>Salespeople</t>
         </is>
@@ -2656,17 +2710,17 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="28" t="inlineStr">
+      <c r="A4" s="30" t="inlineStr">
         <is>
           <t>Brand</t>
         </is>
       </c>
-      <c r="B4" s="28" t="inlineStr">
+      <c r="B4" s="30" t="inlineStr">
         <is>
           <t>Improvement</t>
         </is>
       </c>
-      <c r="C4" s="28" t="inlineStr">
+      <c r="C4" s="30" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -2684,7 +2738,7 @@
         </is>
       </c>
       <c r="C5" s="5">
-        <f>INNOVATION_LAB!B5</f>
+        <f>'INNOVATION LAB'!B5</f>
         <v/>
       </c>
     </row>
@@ -2700,7 +2754,7 @@
         </is>
       </c>
       <c r="C6" s="5">
-        <f>INNOVATION_LAB!B6</f>
+        <f>'INNOVATION LAB'!B6</f>
         <v/>
       </c>
     </row>
@@ -2716,7 +2770,7 @@
         </is>
       </c>
       <c r="C7" s="5">
-        <f>INNOVATION_LAB!B7</f>
+        <f>'INNOVATION LAB'!B7</f>
         <v/>
       </c>
     </row>
@@ -2732,7 +2786,7 @@
         </is>
       </c>
       <c r="C8" s="5">
-        <f>INNOVATION_LAB!B8</f>
+        <f>'INNOVATION LAB'!B8</f>
         <v/>
       </c>
     </row>
@@ -2748,7 +2802,7 @@
         </is>
       </c>
       <c r="C9" s="5">
-        <f>INNOVATION_LAB!B9</f>
+        <f>'INNOVATION LAB'!B9</f>
         <v/>
       </c>
     </row>
@@ -2764,7 +2818,7 @@
         </is>
       </c>
       <c r="C10" s="5">
-        <f>INNOVATION_LAB!B10</f>
+        <f>'INNOVATION LAB'!B10</f>
         <v/>
       </c>
     </row>
@@ -2780,7 +2834,7 @@
         </is>
       </c>
       <c r="C11" s="5">
-        <f>INNOVATION_LAB!B11</f>
+        <f>'INNOVATION LAB'!B11</f>
         <v/>
       </c>
     </row>
@@ -2796,7 +2850,7 @@
         </is>
       </c>
       <c r="C12" s="5">
-        <f>INNOVATION_LAB!B12</f>
+        <f>'INNOVATION LAB'!B12</f>
         <v/>
       </c>
     </row>
@@ -2812,7 +2866,7 @@
         </is>
       </c>
       <c r="C13" s="5">
-        <f>INNOVATION_LAB!B13</f>
+        <f>'INNOVATION LAB'!B13</f>
         <v/>
       </c>
     </row>
@@ -2828,7 +2882,7 @@
         </is>
       </c>
       <c r="C14" s="5">
-        <f>INNOVATION_LAB!B14</f>
+        <f>'INNOVATION LAB'!B14</f>
         <v/>
       </c>
     </row>
@@ -2844,7 +2898,7 @@
         </is>
       </c>
       <c r="C15" s="5">
-        <f>INNOVATION_LAB!B15</f>
+        <f>'INNOVATION LAB'!B15</f>
         <v/>
       </c>
     </row>
@@ -2860,7 +2914,7 @@
         </is>
       </c>
       <c r="C16" s="5">
-        <f>INNOVATION_LAB!B16</f>
+        <f>'INNOVATION LAB'!B16</f>
         <v/>
       </c>
     </row>
@@ -2876,7 +2930,7 @@
         </is>
       </c>
       <c r="C17" s="5">
-        <f>INNOVATION_LAB!B17</f>
+        <f>'INNOVATION LAB'!B17</f>
         <v/>
       </c>
     </row>
@@ -2892,7 +2946,7 @@
         </is>
       </c>
       <c r="C18" s="5">
-        <f>INNOVATION_LAB!B18</f>
+        <f>'INNOVATION LAB'!B18</f>
         <v/>
       </c>
     </row>
@@ -2934,7 +2988,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="inlineStr">
+      <c r="A4" s="31" t="inlineStr">
         <is>
           <t>Production (Capacity)</t>
         </is>
@@ -2948,7 +3002,7 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>13472</t>
         </is>
       </c>
     </row>
@@ -2960,12 +3014,12 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>85.0%</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="30" t="inlineStr">
+      <c r="A9" s="32" t="inlineStr">
         <is>
           <t>Finance (Budget)</t>
         </is>
@@ -2991,7 +3045,7 @@
       </c>
       <c r="B11" s="5" t="inlineStr">
         <is>
-          <t>Healthy</t>
+          <t>🟢 OK</t>
         </is>
       </c>
     </row>
